--- a/examples/regional-gen2.xlsx
+++ b/examples/regional-gen2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jww/Developer/python/terraformer/gen2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B64F1D7A-F56B-2044-B589-049E8ABE25E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64986EB7-8F81-FC4C-9F0E-2C4581005AF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44660" yWindow="-20040" windowWidth="20720" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sshkeys" sheetId="36" r:id="rId1"/>
@@ -28,22 +28,22 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
+    <t>*name</t>
+  </si>
+  <si>
+    <t>*public_key</t>
+  </si>
+  <si>
+    <t>Regions</t>
+  </si>
+  <si>
+    <t>Dallas</t>
+  </si>
+  <si>
+    <t>~/id_rsa.pub</t>
+  </si>
+  <si>
     <t>key1</t>
-  </si>
-  <si>
-    <t>*name</t>
-  </si>
-  <si>
-    <t>*public_key</t>
-  </si>
-  <si>
-    <t>Regions</t>
-  </si>
-  <si>
-    <t>Dallas</t>
-  </si>
-  <si>
-    <t>~/id_rsa.pub</t>
   </si>
 </sst>
 </file>
@@ -433,18 +433,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -469,12 +469,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
